--- a/template.xlsx
+++ b/template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA4EB90-9B4A-4A6E-ABB8-780765AEE32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>stt</t>
   </si>
@@ -27,20 +28,464 @@
     <t>MST</t>
   </si>
   <si>
-    <t>0313355963-005</t>
+    <t>1800277683-025</t>
+  </si>
+  <si>
+    <t>1800498474</t>
+  </si>
+  <si>
+    <t>0314229390</t>
+  </si>
+  <si>
+    <t>1800424257</t>
+  </si>
+  <si>
+    <t>0314539057</t>
+  </si>
+  <si>
+    <t>0100107500-015</t>
+  </si>
+  <si>
+    <t>8003473425</t>
+  </si>
+  <si>
+    <t>1801692883</t>
+  </si>
+  <si>
+    <t>1801541193</t>
+  </si>
+  <si>
+    <t>8525043223</t>
+  </si>
+  <si>
+    <t>0400386012</t>
+  </si>
+  <si>
+    <t>1801312884</t>
+  </si>
+  <si>
+    <t>1800775600</t>
+  </si>
+  <si>
+    <t>1801166295</t>
+  </si>
+  <si>
+    <t>1800545050</t>
+  </si>
+  <si>
+    <t>0312976157</t>
+  </si>
+  <si>
+    <t>0106869738-004</t>
+  </si>
+  <si>
+    <t>0100686209-022</t>
+  </si>
+  <si>
+    <t>1801619202</t>
+  </si>
+  <si>
+    <t>1800682346</t>
+  </si>
+  <si>
+    <t>1800521821</t>
+  </si>
+  <si>
+    <t>0312992783-004</t>
+  </si>
+  <si>
+    <t>1801420463</t>
+  </si>
+  <si>
+    <t>1800147966</t>
+  </si>
+  <si>
+    <t>1800771282</t>
+  </si>
+  <si>
+    <t>1801719743</t>
+  </si>
+  <si>
+    <t>1801226635</t>
+  </si>
+  <si>
+    <t>1801340779</t>
+  </si>
+  <si>
+    <t>1801481882</t>
+  </si>
+  <si>
+    <t>0109266456</t>
+  </si>
+  <si>
+    <t>0100931299-011</t>
+  </si>
+  <si>
+    <t>1800575753</t>
+  </si>
+  <si>
+    <t>0106484449</t>
+  </si>
+  <si>
+    <t>1801668231</t>
+  </si>
+  <si>
+    <t>0106869738-014</t>
+  </si>
+  <si>
+    <t>0100109106</t>
+  </si>
+  <si>
+    <t>1800155244</t>
+  </si>
+  <si>
+    <t>1800789804</t>
+  </si>
+  <si>
+    <t>1801724694</t>
+  </si>
+  <si>
+    <t>1801331439</t>
+  </si>
+  <si>
+    <t>1800683050</t>
+  </si>
+  <si>
+    <t>1800635554</t>
+  </si>
+  <si>
+    <t>0300942001-022</t>
+  </si>
+  <si>
+    <t>1801733522</t>
+  </si>
+  <si>
+    <t>1801750542</t>
+  </si>
+  <si>
+    <t>1800271642-002</t>
+  </si>
+  <si>
+    <t>1801548417</t>
+  </si>
+  <si>
+    <t>1800719973</t>
+  </si>
+  <si>
+    <t>0301241545-005</t>
+  </si>
+  <si>
+    <t>1801372883</t>
+  </si>
+  <si>
+    <t>1801320451</t>
+  </si>
+  <si>
+    <t>0305243705</t>
+  </si>
+  <si>
+    <t>0309730097</t>
+  </si>
+  <si>
+    <t>1800606715</t>
+  </si>
+  <si>
+    <t>0313678178</t>
+  </si>
+  <si>
+    <t>1801116600</t>
+  </si>
+  <si>
+    <t>0311899615</t>
+  </si>
+  <si>
+    <t>1801546875</t>
+  </si>
+  <si>
+    <t>8746826504-001</t>
+  </si>
+  <si>
+    <t>0106615959</t>
+  </si>
+  <si>
+    <t>0310256876</t>
+  </si>
+  <si>
+    <t>0312132837</t>
+  </si>
+  <si>
+    <t>1602172368</t>
+  </si>
+  <si>
+    <t>106869738-014</t>
+  </si>
+  <si>
+    <t>016869738-014</t>
+  </si>
+  <si>
+    <t>1800546671</t>
+  </si>
+  <si>
+    <t>8585508515</t>
+  </si>
+  <si>
+    <t>1801704088</t>
+  </si>
+  <si>
+    <t>1800155156</t>
+  </si>
+  <si>
+    <t>1801713734</t>
+  </si>
+  <si>
+    <t>1801669348</t>
+  </si>
+  <si>
+    <t>8547197900-001</t>
+  </si>
+  <si>
+    <t>1801464213</t>
+  </si>
+  <si>
+    <t>8450901746-002</t>
+  </si>
+  <si>
+    <t>1801209220</t>
+  </si>
+  <si>
+    <t>1800158559</t>
+  </si>
+  <si>
+    <t>0100110824</t>
+  </si>
+  <si>
+    <t>1801503857</t>
+  </si>
+  <si>
+    <t>0106732349-001</t>
+  </si>
+  <si>
+    <t>1800574100</t>
+  </si>
+  <si>
+    <t>1801674355</t>
+  </si>
+  <si>
+    <t>1800275975</t>
+  </si>
+  <si>
+    <t>0300507707-007</t>
+  </si>
+  <si>
+    <t>0100109106-019</t>
+  </si>
+  <si>
+    <t>8785781430-001</t>
+  </si>
+  <si>
+    <t>1801144164</t>
+  </si>
+  <si>
+    <t>1500498480-010</t>
+  </si>
+  <si>
+    <t>6300353254</t>
+  </si>
+  <si>
+    <t>1801472574</t>
+  </si>
+  <si>
+    <t>1801514778</t>
+  </si>
+  <si>
+    <t>0316701481</t>
+  </si>
+  <si>
+    <t>0301241545</t>
+  </si>
+  <si>
+    <t>8076893206</t>
+  </si>
+  <si>
+    <t>1801285990-001</t>
+  </si>
+  <si>
+    <t>1801729149</t>
+  </si>
+  <si>
+    <t>1801631489</t>
+  </si>
+  <si>
+    <t>1801435269</t>
+  </si>
+  <si>
+    <t>1800338287</t>
+  </si>
+  <si>
+    <t>0102703883</t>
+  </si>
+  <si>
+    <t>1800611923</t>
+  </si>
+  <si>
+    <t>8035177193</t>
+  </si>
+  <si>
+    <t>1800155156-007</t>
+  </si>
+  <si>
+    <t>1801730218</t>
+  </si>
+  <si>
+    <t>8410163235-001</t>
+  </si>
+  <si>
+    <t>1801750990</t>
+  </si>
+  <si>
+    <t>1801575160</t>
+  </si>
+  <si>
+    <t>1801575241-001</t>
+  </si>
+  <si>
+    <t>1800512305</t>
+  </si>
+  <si>
+    <t>1801734283</t>
+  </si>
+  <si>
+    <t>0102721191-001</t>
+  </si>
+  <si>
+    <t>8334586243-001</t>
+  </si>
+  <si>
+    <t>1801314063-004</t>
+  </si>
+  <si>
+    <t>1801314063</t>
+  </si>
+  <si>
+    <t>0317641789</t>
+  </si>
+  <si>
+    <t>0305908036</t>
+  </si>
+  <si>
+    <t>0312241579-002</t>
+  </si>
+  <si>
+    <t>0302029252</t>
+  </si>
+  <si>
+    <t>1801748920</t>
+  </si>
+  <si>
+    <t>0104128565-001</t>
+  </si>
+  <si>
+    <t>5600128057-030</t>
+  </si>
+  <si>
+    <t>1800539459</t>
+  </si>
+  <si>
+    <t>1801640148</t>
+  </si>
+  <si>
+    <t>1800271152</t>
+  </si>
+  <si>
+    <t>1800864882</t>
+  </si>
+  <si>
+    <t>1801649616</t>
+  </si>
+  <si>
+    <t>1801749875</t>
+  </si>
+  <si>
+    <t>1800571974-001</t>
+  </si>
+  <si>
+    <t>8805374475-001</t>
+  </si>
+  <si>
+    <t>1801665632</t>
+  </si>
+  <si>
+    <t>1801226392</t>
+  </si>
+  <si>
+    <t>0103255391</t>
+  </si>
+  <si>
+    <t>1800662639</t>
+  </si>
+  <si>
+    <t>1801598249</t>
+  </si>
+  <si>
+    <t>1801447546</t>
+  </si>
+  <si>
+    <t>8426774769</t>
+  </si>
+  <si>
+    <t>1800499157</t>
+  </si>
+  <si>
+    <t>8023963435</t>
+  </si>
+  <si>
+    <t>0104093672</t>
+  </si>
+  <si>
+    <t>1801733191</t>
+  </si>
+  <si>
+    <t>1801664685</t>
+  </si>
+  <si>
+    <t>0302249586-002</t>
+  </si>
+  <si>
+    <t>0108951120</t>
+  </si>
+  <si>
+    <t>1801749949</t>
+  </si>
+  <si>
+    <t>0110804934</t>
+  </si>
+  <si>
+    <t>1801333482-001</t>
+  </si>
+  <si>
+    <t>1801767345</t>
+  </si>
+  <si>
+    <t>0311426136</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,14 +505,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{73E21355-3F5D-423F-924A-6E11D6EC36C3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -344,23 +793,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -368,8 +817,747 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
